--- a/Analysis-Owned_ETF/AMLP - Alerian MLP ETF/amlp_dividend_payout_history.xlsx
+++ b/Analysis-Owned_ETF/AMLP - Alerian MLP ETF/amlp_dividend_payout_history.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FBAAC-1892-5F43-9E30-5387B0E3D361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDAC98-A886-6248-9E30-75B8FF5D32F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dividend Payout" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Clean" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -64,6 +78,12 @@
   </si>
   <si>
     <t>ExDate</t>
+  </si>
+  <si>
+    <t>DivYield</t>
+  </si>
+  <si>
+    <t>10YT</t>
   </si>
 </sst>
 </file>
@@ -156,8 +176,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -166,6 +193,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -210,11 +240,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E60671D7-5657-EB4E-90C2-457CCC87C042}" name="Table2" displayName="Table2" ref="A1:B57" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:B57" xr:uid="{E60671D7-5657-EB4E-90C2-457CCC87C042}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D7F0A743-B072-484A-B9F8-94695E6993A5}" name="Dividend" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{852C8703-7752-E64B-B68C-918F29940680}" name="ExDate" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E60671D7-5657-EB4E-90C2-457CCC87C042}" name="Table2" displayName="Table2" ref="A1:E57" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A1:E57" xr:uid="{E60671D7-5657-EB4E-90C2-457CCC87C042}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D7F0A743-B072-484A-B9F8-94695E6993A5}" name="Dividend" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{852C8703-7752-E64B-B68C-918F29940680}" name="ExDate" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{ECFDD89A-E4B5-EE40-B8E8-68CF5347A404}" name="Year" dataDxfId="2">
+      <calculatedColumnFormula>YEAR(Table2[[#This Row],[ExDate]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{84283550-AF10-0446-A2F1-BBD2307A67A6}" name="DivYield" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7EE1EA71-F2D3-9447-A332-F2768E8D7BBF}" name="10YT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -544,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F72"/>
     </sheetView>
   </sheetViews>
@@ -2654,469 +2689,814 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DAA334-DBD4-AC45-8A6D-F6AA56E5C671}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0.94</v>
       </c>
       <c r="B2" s="3">
         <v>45512</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2024</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0.94</v>
       </c>
       <c r="B3" s="3">
         <v>45421</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2024</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0.88</v>
       </c>
       <c r="B4" s="3">
         <v>45330</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2024</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.88</v>
       </c>
       <c r="B5" s="3">
         <v>45239</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2023</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.83</v>
       </c>
       <c r="B6" s="3">
         <v>45148</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2023</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.86</v>
       </c>
       <c r="B7" s="3">
         <v>45057</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2023</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.77</v>
       </c>
       <c r="B8" s="3">
         <v>44966</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2023</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.75</v>
       </c>
       <c r="B9" s="3">
         <v>44874</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.74</v>
       </c>
       <c r="B10" s="3">
         <v>44784</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2022</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.73</v>
       </c>
       <c r="B11" s="3">
         <v>44693</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2022</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.71</v>
       </c>
       <c r="B12" s="3">
         <v>44602</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2022</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.76</v>
       </c>
       <c r="B13" s="3">
         <v>44510</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2021</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.68</v>
       </c>
       <c r="B14" s="3">
         <v>44420</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2021</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0.68</v>
       </c>
       <c r="B15" s="3">
         <v>44329</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2021</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.68</v>
       </c>
       <c r="B16" s="3">
         <v>44238</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2021</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.71</v>
       </c>
       <c r="B17" s="3">
         <v>44147</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2020</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.75</v>
       </c>
       <c r="B18" s="3">
         <v>44056</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2020</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.15</v>
       </c>
       <c r="B19" s="3">
         <v>43958</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2020</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0.19</v>
       </c>
       <c r="B20" s="3">
         <v>43874</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2020</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.19500000000000001</v>
       </c>
       <c r="B21" s="3">
         <v>43783</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2019</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.19</v>
       </c>
       <c r="B22" s="3">
         <v>43685</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2019</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.19500000000000001</v>
       </c>
       <c r="B23" s="3">
         <v>43594</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2019</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.19500000000000001</v>
       </c>
       <c r="B24" s="3">
         <v>43510</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2019</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.1913</v>
       </c>
       <c r="B25" s="3">
         <v>43412</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2018</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.20660000000000001</v>
       </c>
       <c r="B26" s="3">
         <v>43321</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2018</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.20660000000000001</v>
       </c>
       <c r="B27" s="3">
         <v>43230</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2018</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.20660000000000001</v>
       </c>
       <c r="B28" s="3">
         <v>43139</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2018</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.20519999999999999</v>
       </c>
       <c r="B29" s="3">
         <v>43048</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2017</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.215</v>
       </c>
       <c r="B30" s="3">
         <v>42956</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2017</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.215</v>
       </c>
       <c r="B31" s="3">
         <v>42865</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2017</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.22500000000000001</v>
       </c>
       <c r="B32" s="3">
         <v>42774</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2017</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.24</v>
       </c>
       <c r="B33" s="3">
         <v>42683</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2016</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0.24</v>
       </c>
       <c r="B34" s="3">
         <v>42592</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2016</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0.24</v>
       </c>
       <c r="B35" s="3">
         <v>42501</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2016</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0.29899999999999999</v>
       </c>
       <c r="B36" s="3">
         <v>42410</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2016</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0.29899999999999999</v>
       </c>
       <c r="B37" s="3">
         <v>42318</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2015</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0.29899999999999999</v>
       </c>
       <c r="B38" s="3">
         <v>42228</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2015</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0.29549999999999998</v>
       </c>
       <c r="B39" s="3">
         <v>42137</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2015</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0.29249999999999998</v>
       </c>
       <c r="B40" s="3">
         <v>42046</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2015</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0.28899999999999998</v>
       </c>
       <c r="B41" s="3">
         <v>41949</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2014</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0.28399999999999997</v>
       </c>
       <c r="B42" s="3">
         <v>41857</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2014</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0.27900000000000003</v>
       </c>
       <c r="B43" s="3">
         <v>41765</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2014</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0.27800000000000002</v>
       </c>
       <c r="B44" s="3">
         <v>41676</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2014</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0.27400000000000002</v>
       </c>
       <c r="B45" s="3">
         <v>41585</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2013</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0.26900000000000002</v>
       </c>
       <c r="B46" s="3">
         <v>41493</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2013</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0.26400000000000001</v>
       </c>
       <c r="B47" s="3">
         <v>41401</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2013</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0.26100000000000001</v>
       </c>
       <c r="B48" s="3">
         <v>41312</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2013</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>0.25600000000000001</v>
       </c>
       <c r="B49" s="3">
         <v>41220</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2012</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>0.252</v>
       </c>
       <c r="B50" s="3">
         <v>41128</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2012</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>0.245</v>
       </c>
       <c r="B51" s="3">
         <v>41036</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2012</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>0.24296699999999999</v>
       </c>
       <c r="B52" s="3">
         <v>40946</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2012</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>0.25775199999999998</v>
       </c>
       <c r="B53" s="3">
         <v>40854</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2011</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>0.252558</v>
       </c>
       <c r="B54" s="3">
         <v>40760</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2011</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>0.24582999999999999</v>
       </c>
       <c r="B55" s="3">
         <v>40669</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2011</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>0.24324299999999999</v>
       </c>
       <c r="B56" s="3">
         <v>40581</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2011</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>0.24793999999999999</v>
       </c>
       <c r="B57" s="3">
         <v>40487</v>
       </c>
+      <c r="C57" s="9">
+        <f>YEAR(Table2[[#This Row],[ExDate]])</f>
+        <v>2010</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3124,4 +3504,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DFDF0F-3FC8-CA41-9455-586EC459F8F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>